--- a/Project/Project/ML Models with additional 3 features/Summary_21-02-2025.xlsx
+++ b/Project/Project/ML Models with additional 3 features/Summary_21-02-2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AAU Data\Seafile AAU\My Library\Research papers\Work with Patrick Rodler\Project\Project\ML Models with additional 3 features\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB450810-E8DA-4EAF-8281-3DAC8F406F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4EFE53-4848-4BC0-AE34-FF136FD6FD09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="20">
   <si>
     <t>Nongrouped Dataset</t>
   </si>
@@ -76,6 +76,15 @@
   </si>
   <si>
     <t>100 x 20</t>
+  </si>
+  <si>
+    <t>Classification_Tree_Post_Pruning</t>
+  </si>
+  <si>
+    <t>Regression_Tree_Post_Pruning</t>
+  </si>
+  <si>
+    <t>Classification_Tree_Postruning</t>
   </si>
 </sst>
 </file>
@@ -206,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -215,15 +224,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,7 +514,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C4:H53"/>
+  <dimension ref="C4:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -581,129 +591,125 @@
       </c>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="7"/>
+      <c r="H11" s="7">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D12" s="5"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D13" s="5"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H13" s="7" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6">
-        <v>246.5</v>
-      </c>
-      <c r="G13" s="6">
-        <v>0.92</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0.13</v>
       </c>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D14" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6">
-        <v>232.5</v>
+        <v>246.5</v>
       </c>
       <c r="G14" s="6">
         <v>0.92</v>
       </c>
       <c r="H14" s="7">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6">
+        <v>232.5</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0.92</v>
+      </c>
+      <c r="H15" s="7">
         <v>0.27</v>
       </c>
     </row>
-    <row r="15" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D15" s="12" t="s">
+    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6">
+        <v>238.1</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0.92</v>
+      </c>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D17" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10">
+      <c r="E17" s="8"/>
+      <c r="F17" s="8">
         <v>246.8</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G17" s="8">
         <v>0.92</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H17" s="9">
         <v>0.19</v>
       </c>
     </row>
-    <row r="19" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="1" t="s">
+    <row r="21" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C20" s="2"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3" t="s">
+    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C22" s="2"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="4" t="s">
+      <c r="G22" s="3"/>
+      <c r="H22" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C22" s="8" t="s">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C23" s="5"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C24" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D24" s="6" t="s">
         <v>2</v>
-      </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="7">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C23" s="8"/>
-      <c r="D23" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="7">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C24" s="8"/>
-      <c r="D24" s="6" t="s">
-        <v>4</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6">
@@ -711,146 +717,148 @@
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="7">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C25" s="11"/>
+      <c r="D25" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="7">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C26" s="11"/>
+      <c r="D26" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="7">
         <v>0.53</v>
       </c>
     </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C25" s="8"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C26" s="8"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6" t="s">
+    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C27" s="11"/>
+      <c r="D27" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="7">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C28" s="11"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C29" s="11"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G29" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H29" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C27" s="8"/>
-      <c r="D27" s="6" t="s">
+    <row r="30" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C30" s="11"/>
+      <c r="D30" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6">
+      <c r="E30" s="6"/>
+      <c r="F30" s="6">
         <v>380.2</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G30" s="6">
         <v>0.38</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H30" s="7">
         <v>-2.25</v>
       </c>
     </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C28" s="8"/>
-      <c r="D28" s="6" t="s">
+    <row r="31" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C31" s="11"/>
+      <c r="D31" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6">
+      <c r="E31" s="6"/>
+      <c r="F31" s="6">
         <v>380.2</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G31" s="6">
         <v>0.38</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H31" s="7">
         <v>-2.25</v>
       </c>
     </row>
-    <row r="29" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="9"/>
-      <c r="D29" s="10" t="s">
+    <row r="32" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C32" s="11"/>
+      <c r="D32" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6">
+        <v>360.5</v>
+      </c>
+      <c r="G32" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C33" s="12"/>
+      <c r="D33" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10">
+      <c r="E33" s="8"/>
+      <c r="F33" s="8">
         <v>380</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G33" s="8">
         <v>0.38</v>
       </c>
-      <c r="H29" s="11">
+      <c r="H33" s="9">
         <v>-2.1800000000000002</v>
       </c>
     </row>
-    <row r="31" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C32" s="2"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3" t="s">
+    <row r="35" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C36" s="2"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="4" t="s">
+      <c r="G36" s="3"/>
+      <c r="H36" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C34" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6">
-        <v>0.71</v>
-      </c>
-      <c r="G34" s="6"/>
-      <c r="H34" s="7">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C35" s="8"/>
-      <c r="D35" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6">
-        <v>0.73</v>
-      </c>
-      <c r="G35" s="6"/>
-      <c r="H35" s="7">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C36" s="8"/>
-      <c r="D36" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="G36" s="6"/>
-      <c r="H36" s="7">
-        <v>0.54</v>
-      </c>
-    </row>
     <row r="37" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C37" s="8"/>
+      <c r="C37" s="5"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -858,207 +866,311 @@
       <c r="H37" s="7"/>
     </row>
     <row r="38" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C38" s="8"/>
-      <c r="D38" s="6"/>
+      <c r="C38" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="E38" s="6"/>
-      <c r="F38" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>11</v>
+      <c r="F38" s="6">
+        <v>0.71</v>
+      </c>
+      <c r="G38" s="6"/>
+      <c r="H38" s="7">
+        <v>0.6</v>
       </c>
     </row>
     <row r="39" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C39" s="8"/>
+      <c r="C39" s="11"/>
       <c r="D39" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="6">
-        <v>269.8</v>
-      </c>
-      <c r="G39" s="6">
-        <v>0.36</v>
-      </c>
+        <v>0.73</v>
+      </c>
+      <c r="G39" s="6"/>
       <c r="H39" s="7">
-        <v>-4.37</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="40" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C40" s="8"/>
+      <c r="C40" s="11"/>
       <c r="D40" s="6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="G40" s="6"/>
+      <c r="H40" s="7">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C41" s="11"/>
+      <c r="D41" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="7">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C42" s="11"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C43" s="11"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C44" s="11"/>
+      <c r="D44" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6">
+        <v>269.8</v>
+      </c>
+      <c r="G44" s="6">
+        <v>0.36</v>
+      </c>
+      <c r="H44" s="7">
+        <v>-4.37</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C45" s="11"/>
+      <c r="D45" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6">
         <v>248</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G45" s="6">
         <v>0.41</v>
       </c>
-      <c r="H40" s="7">
+      <c r="H45" s="7">
         <v>-3.37</v>
       </c>
     </row>
-    <row r="41" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C41" s="9"/>
-      <c r="D41" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10">
-        <v>270.5</v>
-      </c>
-      <c r="G41" s="10">
-        <v>0.36</v>
-      </c>
-      <c r="H41" s="11">
-        <v>-4.24</v>
-      </c>
-    </row>
-    <row r="43" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="44" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C44" s="2"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G44" s="3"/>
-      <c r="H44" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C45" s="5"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="7"/>
-    </row>
     <row r="46" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C46" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>2</v>
+      <c r="C46" s="11"/>
+      <c r="D46" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="G46" s="6"/>
-      <c r="H46" s="7">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="47" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C47" s="8"/>
-      <c r="D47" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6">
-        <v>0.91</v>
-      </c>
-      <c r="G47" s="6"/>
-      <c r="H47" s="7">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="48" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C48" s="8"/>
-      <c r="D48" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6">
-        <v>0.89</v>
-      </c>
-      <c r="G48" s="6"/>
-      <c r="H48" s="7">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C49" s="8"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="7"/>
-    </row>
+        <v>268</v>
+      </c>
+      <c r="G46" s="6">
+        <v>0.37</v>
+      </c>
+      <c r="H46" s="7"/>
+    </row>
+    <row r="47" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C47" s="12"/>
+      <c r="D47" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8">
+        <v>270.5</v>
+      </c>
+      <c r="G47" s="8">
+        <v>0.36</v>
+      </c>
+      <c r="H47" s="9">
+        <v>-4.24</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="50" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C50" s="8"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H50" s="7" t="s">
-        <v>11</v>
+      <c r="C50" s="2"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G50" s="3"/>
+      <c r="H50" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C51" s="8"/>
-      <c r="D51" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="6"/>
       <c r="E51" s="6"/>
-      <c r="F51" s="6">
-        <v>152.69999999999999</v>
-      </c>
-      <c r="G51" s="6">
-        <v>0.98</v>
-      </c>
-      <c r="H51" s="7">
-        <v>0.63</v>
-      </c>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="7"/>
     </row>
     <row r="52" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C52" s="8"/>
+      <c r="C52" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="D52" s="6" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="G52" s="6"/>
+      <c r="H52" s="7">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="53" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C53" s="11"/>
+      <c r="D53" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6">
+        <v>0.91</v>
+      </c>
+      <c r="G53" s="6"/>
+      <c r="H53" s="7">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C54" s="11"/>
+      <c r="D54" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6">
+        <v>0.89</v>
+      </c>
+      <c r="G54" s="6"/>
+      <c r="H54" s="7">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C55" s="11"/>
+      <c r="D55" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="7">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="56" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C56" s="11"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="7"/>
+    </row>
+    <row r="57" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C57" s="11"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C58" s="11"/>
+      <c r="D58" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6">
+        <v>152.69999999999999</v>
+      </c>
+      <c r="G58" s="6">
+        <v>0.98</v>
+      </c>
+      <c r="H58" s="7">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="59" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C59" s="11"/>
+      <c r="D59" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6">
         <v>150.4</v>
       </c>
-      <c r="G52" s="6">
+      <c r="G59" s="6">
         <v>0.98</v>
       </c>
-      <c r="H52" s="7">
+      <c r="H59" s="7">
         <v>0.75</v>
       </c>
     </row>
-    <row r="53" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C53" s="9"/>
-      <c r="D53" s="10" t="s">
+    <row r="60" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C60" s="11"/>
+      <c r="D60" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6">
+        <v>151.69999999999999</v>
+      </c>
+      <c r="G60" s="6">
+        <v>0.98</v>
+      </c>
+      <c r="H60" s="7"/>
+    </row>
+    <row r="61" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C61" s="12"/>
+      <c r="D61" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10">
+      <c r="E61" s="8"/>
+      <c r="F61" s="8">
         <v>156.69999999999999</v>
       </c>
-      <c r="G53" s="10">
+      <c r="G61" s="8">
         <v>0.98</v>
       </c>
-      <c r="H53" s="11">
+      <c r="H61" s="9">
         <v>0.68</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C22:C29"/>
-    <mergeCell ref="C34:C41"/>
-    <mergeCell ref="C46:C53"/>
+    <mergeCell ref="C24:C33"/>
+    <mergeCell ref="C38:C47"/>
+    <mergeCell ref="C52:C61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
